--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,772 +482,741 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.06400115479785962</v>
+        <v>0.00360789897647229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05210467018260012</v>
+        <v>-0.02227312218359745</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4002976126634258</v>
+        <v>-0.6049943525983172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07651994587127109</v>
+        <v>-0.04654398098850288</v>
       </c>
       <c r="F2" t="n">
-        <v>1.177535772323608</v>
+        <v>1.102712392807007</v>
       </c>
       <c r="G2" t="n">
-        <v>1.16310977935791</v>
+        <v>2.424077033996582</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04272505640983582</v>
+        <v>0.2013064026832581</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6358700394630432</v>
+        <v>1.378067493438721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_1</t>
+          <t>model_8_0_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03784646071147924</v>
+        <v>0.2822280652317948</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008545661507578406</v>
+        <v>-0.5309069578280707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4843638916531755</v>
+        <v>-1.094049999689128</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0395181982893632</v>
+        <v>-0.5533693074731696</v>
       </c>
       <c r="F3" t="n">
-        <v>1.148590207099915</v>
+        <v>0.7943620681762695</v>
       </c>
       <c r="G3" t="n">
-        <v>1.216558814048767</v>
+        <v>3.630181312561035</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03673585876822472</v>
+        <v>0.2626461982727051</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6613479256629944</v>
+        <v>2.045444250106812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_2</t>
+          <t>model_8_0_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01083313240942307</v>
+        <v>0.2907712234455657</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2949170765190936</v>
+        <v>-0.5081051577113975</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.069815632498706</v>
+        <v>-1.048414813234539</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3711445594443497</v>
+        <v>-0.529595864114093</v>
       </c>
       <c r="F4" t="n">
-        <v>1.118694424629211</v>
+        <v>0.7849072813987732</v>
       </c>
       <c r="G4" t="n">
-        <v>1.588920950889587</v>
+        <v>3.576112031936646</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2187052369117737</v>
+        <v>0.2569224238395691</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9441132545471191</v>
+        <v>2.014140129089355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_3</t>
+          <t>model_8_0_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3311593689855582</v>
+        <v>0.294137774843938</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2578947037610633</v>
+        <v>-0.4981981367846011</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7485252084090719</v>
+        <v>-1.048031997947845</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2718815723713226</v>
+        <v>-0.5201242567299311</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7402095198631287</v>
+        <v>0.7811815142631531</v>
       </c>
       <c r="G5" t="n">
-        <v>1.543492794036865</v>
+        <v>3.552619934082031</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1245715171098709</v>
+        <v>0.2568743824958801</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8757649064064026</v>
+        <v>2.001668214797974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_4</t>
+          <t>model_8_0_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3476058774667045</v>
+        <v>0.3004109495316379</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2521940045751847</v>
+        <v>0.1768815845368426</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.000504611648757</v>
+        <v>-0.794122486585674</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2787725617002246</v>
+        <v>0.1348460141673719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7220081090927124</v>
+        <v>0.7742389440536499</v>
       </c>
       <c r="G6" t="n">
-        <v>1.536497831344604</v>
+        <v>1.951829075813293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1425234824419022</v>
+        <v>0.2250277996063232</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8805097937583923</v>
+        <v>1.139216780662537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_5</t>
+          <t>model_8_0_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3993443011968999</v>
+        <v>0.4574488464323029</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.783200987976052</v>
+        <v>-0.04812893193633183</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.827513803982142</v>
+        <v>-0.4707736330875349</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9173931674858051</v>
+        <v>-0.06518828267963328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6647488474845886</v>
+        <v>0.6004442572593689</v>
       </c>
       <c r="G7" t="n">
-        <v>2.188067197799683</v>
+        <v>2.485388040542603</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3439302444458008</v>
+        <v>0.1844717711210251</v>
       </c>
       <c r="I7" t="n">
-        <v>1.320237517356873</v>
+        <v>1.402617812156677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_6</t>
+          <t>model_8_0_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4260529216536706</v>
+        <v>0.5992330177109119</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7525130218490139</v>
+        <v>0.4746546718295044</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.799859842641111</v>
+        <v>-0.7919599252067782</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.935786376834814</v>
+        <v>0.4188300163124785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6351903676986694</v>
+        <v>0.4435309767723083</v>
       </c>
       <c r="G8" t="n">
-        <v>2.150411367416382</v>
+        <v>1.245731234550476</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4132038652896881</v>
+        <v>0.2247565537691116</v>
       </c>
       <c r="I8" t="n">
-        <v>1.332902193069458</v>
+        <v>0.7652725577354431</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_7</t>
+          <t>model_8_0_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4480912461220985</v>
+        <v>0.6139026109794967</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7586322017276146</v>
+        <v>0.4037457942014204</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.545951811247833</v>
+        <v>-0.3774078374511685</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9778875995865923</v>
+        <v>0.3698023380339559</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6108003258705139</v>
+        <v>0.4272960722446442</v>
       </c>
       <c r="G9" t="n">
-        <v>2.157919883728027</v>
+        <v>1.413874864578247</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4663582444190979</v>
+        <v>0.1727613806724548</v>
       </c>
       <c r="I9" t="n">
-        <v>1.361891508102417</v>
+        <v>0.8298312425613403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_8</t>
+          <t>model_8_0_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4674589078676143</v>
+        <v>0.6315510331374967</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7263553967322716</v>
+        <v>0.4989189677322526</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.851965281314923</v>
+        <v>-0.3593531004340638</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9623363221071344</v>
+        <v>0.4613541364988543</v>
       </c>
       <c r="F10" t="n">
-        <v>0.58936607837677</v>
+        <v>0.4077644348144531</v>
       </c>
       <c r="G10" t="n">
-        <v>2.118314981460571</v>
+        <v>1.188194155693054</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4881597757339478</v>
+        <v>0.1704968512058258</v>
       </c>
       <c r="I10" t="n">
-        <v>1.351183414459229</v>
+        <v>0.7092776894569397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_9</t>
+          <t>model_8_0_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4956162993948295</v>
+        <v>0.6446089610308425</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5441743644650261</v>
+        <v>0.5246546061665023</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.076564957836979</v>
+        <v>-0.6400777723154734</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8500866841975154</v>
+        <v>0.4733062681158334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5582041144371033</v>
+        <v>0.3933131396770477</v>
       </c>
       <c r="G11" t="n">
-        <v>1.894770741462708</v>
+        <v>1.127168297767639</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5754048824310303</v>
+        <v>0.2057067453861237</v>
       </c>
       <c r="I11" t="n">
-        <v>1.273892879486084</v>
+        <v>0.6935393810272217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_10</t>
+          <t>model_8_0_5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5025696120251613</v>
+        <v>0.6478333346487901</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6145110476023583</v>
+        <v>0.5266482035835585</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.924118194373584</v>
+        <v>-0.5931010773344256</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.055094863912436</v>
+        <v>0.4773117046553086</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5505088567733765</v>
+        <v>0.3897447288036346</v>
       </c>
       <c r="G12" t="n">
-        <v>1.981076955795288</v>
+        <v>1.122440934181213</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7782753109931946</v>
+        <v>0.1998146921396255</v>
       </c>
       <c r="I12" t="n">
-        <v>1.415053129196167</v>
+        <v>0.6882650852203369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_11</t>
+          <t>model_8_0_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5267449232636658</v>
+        <v>0.6488529618231931</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6028432484473676</v>
+        <v>0.5036245067058069</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.422228480486</v>
+        <v>-0.3243181726998603</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.068339653960033</v>
+        <v>0.4674128882614131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5237539410591125</v>
+        <v>0.3886162936687469</v>
       </c>
       <c r="G13" t="n">
-        <v>1.966760158538818</v>
+        <v>1.177036285400391</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8137625455856323</v>
+        <v>0.1661026030778885</v>
       </c>
       <c r="I13" t="n">
-        <v>1.424172878265381</v>
+        <v>0.7012996077537537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_12</t>
+          <t>model_8_0_6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5351713959682336</v>
+        <v>0.6488895221339841</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6288204969984794</v>
+        <v>0.5289071697092835</v>
       </c>
       <c r="D14" t="n">
-        <v>-10.35999458743116</v>
+        <v>-0.6048718333543961</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.089817486922724</v>
+        <v>0.4789394979570819</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5144282579421997</v>
+        <v>0.3885758221149445</v>
       </c>
       <c r="G14" t="n">
-        <v>1.998635172843933</v>
+        <v>1.117084383964539</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8093287944793701</v>
+        <v>0.2012910395860672</v>
       </c>
       <c r="I14" t="n">
-        <v>1.438961625099182</v>
+        <v>0.6861215829849243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_14</t>
+          <t>model_8_0_7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.539733245819159</v>
+        <v>0.6496967673965036</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6150751749880783</v>
+        <v>0.5304208449694559</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.6162274695825</v>
+        <v>-0.6033388722990221</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.089325988908603</v>
+        <v>0.480449939744062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5093796849250793</v>
+        <v>0.3876824378967285</v>
       </c>
       <c r="G15" t="n">
-        <v>1.981769323348999</v>
+        <v>1.113495111465454</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8275837302207947</v>
+        <v>0.201098769903183</v>
       </c>
       <c r="I15" t="n">
-        <v>1.438623309135437</v>
+        <v>0.6841326951980591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_16</t>
+          <t>model_8_0_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5417768170544578</v>
+        <v>0.6501421426076986</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.598890656200382</v>
+        <v>0.5311499282923202</v>
       </c>
       <c r="D16" t="n">
-        <v>-10.77907816529796</v>
+        <v>-0.6040755523908299</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.081985953443684</v>
+        <v>0.481112427915852</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5071180462837219</v>
+        <v>0.3871895968914032</v>
       </c>
       <c r="G16" t="n">
-        <v>1.961910009384155</v>
+        <v>1.111766219139099</v>
       </c>
       <c r="H16" t="n">
-        <v>0.839185893535614</v>
+        <v>0.2011911571025848</v>
       </c>
       <c r="I16" t="n">
-        <v>1.433569312095642</v>
+        <v>0.683260440826416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_13</t>
+          <t>model_8_0_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5450523202600671</v>
+        <v>0.6506746957982494</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5883554976348746</v>
+        <v>0.5323514239386353</v>
       </c>
       <c r="D17" t="n">
-        <v>-10.21439248867514</v>
+        <v>-0.6153923569655904</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.044550030031245</v>
+        <v>0.4817507572294563</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5034930109977722</v>
+        <v>0.3866001665592194</v>
       </c>
       <c r="G17" t="n">
-        <v>1.948982834815979</v>
+        <v>1.108917117118835</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7989555597305298</v>
+        <v>0.202610582113266</v>
       </c>
       <c r="I17" t="n">
-        <v>1.407792329788208</v>
+        <v>0.6824198365211487</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_17</t>
+          <t>model_8_0_10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.54546941290294</v>
+        <v>0.6514093954526898</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5857677667967818</v>
+        <v>0.5328093295290721</v>
       </c>
       <c r="D18" t="n">
-        <v>-10.72359683293397</v>
+        <v>-0.591919651979951</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.066903939403057</v>
+        <v>0.4832393984538995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5030314326286316</v>
+        <v>0.3857870697975159</v>
       </c>
       <c r="G18" t="n">
-        <v>1.945807814598083</v>
+        <v>1.107831478118896</v>
       </c>
       <c r="H18" t="n">
-        <v>0.835233211517334</v>
+        <v>0.1996665000915527</v>
       </c>
       <c r="I18" t="n">
-        <v>1.423184394836426</v>
+        <v>0.6804595589637756</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_15</t>
+          <t>model_8_0_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5490220862440676</v>
+        <v>0.6533029526046494</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5610643730015135</v>
+        <v>0.518142247252275</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.69621723616419</v>
+        <v>-0.3487339646701004</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.042264184305219</v>
+        <v>0.4801577791557413</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4990996718406677</v>
+        <v>0.3836914598941803</v>
       </c>
       <c r="G19" t="n">
-        <v>1.91549551486969</v>
+        <v>1.142611026763916</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8332825303077698</v>
+        <v>0.1691649556159973</v>
       </c>
       <c r="I19" t="n">
-        <v>1.406218528747559</v>
+        <v>0.6845174431800842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_24</t>
+          <t>model_8_0_14</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5500848050857881</v>
+        <v>0.6537689393600604</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5327756769047678</v>
+        <v>0.5288757486652287</v>
       </c>
       <c r="D20" t="n">
-        <v>-12.03947439630893</v>
+        <v>-0.5342207618141623</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.08098055683723</v>
+        <v>0.4820750780991628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4979235827922821</v>
+        <v>0.383175790309906</v>
       </c>
       <c r="G20" t="n">
-        <v>1.880784153938293</v>
+        <v>1.117158889770508</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9289812445640564</v>
+        <v>0.1924296319484711</v>
       </c>
       <c r="I20" t="n">
-        <v>1.432876944541931</v>
+        <v>0.681992769241333</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_23</t>
+          <t>model_8_0_16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5505444141236827</v>
+        <v>0.6537974102497708</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5371803947737148</v>
+        <v>0.5228622695504979</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.80872271619038</v>
+        <v>-0.4139467010893219</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.073900551578357</v>
+        <v>0.4817339519205807</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4974149167537689</v>
+        <v>0.3831442296504974</v>
       </c>
       <c r="G21" t="n">
-        <v>1.886188745498657</v>
+        <v>1.131418466567993</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9125416278839111</v>
+        <v>0.1773442625999451</v>
       </c>
       <c r="I21" t="n">
-        <v>1.428001999855042</v>
+        <v>0.6824420094490051</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_22</t>
+          <t>model_8_0_15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5515585735520674</v>
+        <v>0.6543678848162855</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.553112997809502</v>
+        <v>0.5272281078528994</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.29480645834215</v>
+        <v>-0.4622403046653702</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.063909168430888</v>
+        <v>0.483730834077388</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4962925314903259</v>
+        <v>0.3825128972530365</v>
       </c>
       <c r="G22" t="n">
-        <v>1.905738830566406</v>
+        <v>1.121065855026245</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8759282827377319</v>
+        <v>0.1834014803171158</v>
       </c>
       <c r="I22" t="n">
-        <v>1.421122312545776</v>
+        <v>0.6798125505447388</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_20</t>
+          <t>model_8_0_13</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5516804493550362</v>
+        <v>0.6549559739567312</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5642750488349593</v>
+        <v>0.5334523394599244</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.91511622297842</v>
+        <v>-0.5480448412247481</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.055952506238751</v>
+        <v>0.4858191511786049</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4961576163768768</v>
+        <v>0.3818620145320892</v>
       </c>
       <c r="G23" t="n">
-        <v>1.919435262680054</v>
+        <v>1.106306552886963</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8488777875900269</v>
+        <v>0.194163516163826</v>
       </c>
       <c r="I23" t="n">
-        <v>1.415643572807312</v>
+        <v>0.6770626306533813</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_21</t>
+          <t>model_8_0_11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5554217795022311</v>
+        <v>0.6574526976448981</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5427908331313354</v>
+        <v>0.5346935729252333</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.0422457152034</v>
+        <v>-0.3270949505228409</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.041873725097756</v>
+        <v>0.4969063338771953</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4920170903205872</v>
+        <v>0.3790989518165588</v>
       </c>
       <c r="G24" t="n">
-        <v>1.893073201179504</v>
+        <v>1.103363275527954</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8579349517822266</v>
+        <v>0.1664508730173111</v>
       </c>
       <c r="I24" t="n">
-        <v>1.405949592590332</v>
+        <v>0.6624633073806763</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_0_19</t>
+          <t>model_8_0_12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5577830510662526</v>
+        <v>0.6589533625214915</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.520822037523349</v>
+        <v>0.5296800645862065</v>
       </c>
       <c r="D25" t="n">
-        <v>-11.02059046335397</v>
+        <v>-0.1852668316409705</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.020092597880923</v>
+        <v>0.4984841175765918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4894038736820221</v>
+        <v>0.3774381279945374</v>
       </c>
       <c r="G25" t="n">
-        <v>1.866116166114807</v>
+        <v>1.115251541137695</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8563921451568604</v>
+        <v>0.1486620754003525</v>
       </c>
       <c r="I25" t="n">
-        <v>1.390951991081238</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_8_0_18</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5606451550195886</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.5163421927692053</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-10.77359484732754</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-1.003839849252347</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.4862363636493683</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.860619187355042</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.8387951850891113</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.379761099815369</v>
+        <v>0.6603856682777405</v>
       </c>
     </row>
   </sheetData>
